--- a/Docs/MC - Tablas de Datos Lab 7.xlsx
+++ b/Docs/MC - Tablas de Datos Lab 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc/Documents/GitHub/EDA/-LabCollision-S07-G04-/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC0A658-DCF6-3E4A-BAAE-E6183B5ECC38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D3347D-9A56-494D-B501-F6B3BE84C6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="0" windowWidth="14060" windowHeight="18000" tabRatio="767" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -143,19 +146,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -180,7 +189,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -188,6 +197,14 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -206,7 +223,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -214,14 +231,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -266,7 +275,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -343,32 +378,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -612,7 +621,7 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$3:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1307640.9024999999</c:v>
@@ -630,7 +639,7 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$C$3:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>31310.106</c:v>
@@ -699,8 +708,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -738,7 +747,7 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$10:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1307640.9024999999</c:v>
@@ -746,7 +755,7 @@
                 <c:pt idx="1">
                   <c:v>1307640.9024999999</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>1307640.7125000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -756,9 +765,9 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$C$10:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>31137.034</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -874,7 +883,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -996,7 +1005,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1672,7 +1681,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0"/>
+    <sheetView zoomScale="94" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1683,7 +1692,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669130" cy="6272696"/>
+    <xdr:ext cx="8678333" cy="6291204"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1716,8 +1725,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="4">
       <calculatedColumnFormula>ROUND(AVERAGE(1307664.808, 1307632.934,1307632.934,1307632.934),2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="3">
@@ -1729,14 +1738,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="1">
       <calculatedColumnFormula>AVERAGE(1307664.808,1307632.934,1307632.934,1307632.934)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(35756.639,31360.055,29879.004,30473.106)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2043,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2055,11 +2064,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2076,11 +2085,11 @@
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="8">
         <f>AVERAGE(1307664.808,1307632.934,1307632.934,1307632.934)</f>
         <v>1307640.9024999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <f>AVERAGE(35157.27,30943.382,29220.949,29918.823)</f>
         <v>31310.106</v>
       </c>
@@ -2089,11 +2098,11 @@
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <f>AVERAGE(1307664.808,1307632.934,1307632.934,1307632.934)</f>
         <v>1307640.9024999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <f>AVERAGE(36980.374,31871.91,29807.519,30998.409)</f>
         <v>32414.553</v>
       </c>
@@ -2102,21 +2111,21 @@
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
-      <c r="B5" s="2">
-        <f t="shared" ref="B3:B5" si="0">ROUND(AVERAGE(1307664.808, 1307632.934,1307632.934,1307632.934),2)</f>
+      <c r="B5" s="8">
+        <f t="shared" ref="B5" si="0">ROUND(AVERAGE(1307664.808, 1307632.934,1307632.934,1307632.934),2)</f>
         <v>1307640.8999999999</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C3:C5" si="1">AVERAGE(40695.658,28954.351,33240.404,32154.696)</f>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5" si="1">AVERAGE(40695.658,28954.351,33240.404,32154.696)</f>
         <v>33761.277249999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2133,11 +2142,11 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="7">
-        <f t="shared" ref="B10:B17" si="2">AVERAGE(1307664.808,1307632.934,1307632.934,1307632.934)</f>
+      <c r="B10" s="9">
+        <f t="shared" ref="B10" si="2">AVERAGE(1307664.808,1307632.934,1307632.934,1307632.934)</f>
         <v>1307640.9024999999</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <f>AVERAGE(32300.485,32871.653,29491.981,29884.017)</f>
         <v>31137.034</v>
       </c>
@@ -2146,11 +2155,11 @@
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <f>AVERAGE(1307664.808,1307632.934,1307632.934,1307632.934)</f>
         <v>1307640.9024999999</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="10">
         <f>AVERAGE(31687.44,28879.305,29750.589,30619.079)</f>
         <v>30234.10325</v>
       </c>
@@ -2159,21 +2168,21 @@
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <f>AVERAGE(1307664.237,1307632.871,1307632.871,1307632.871)</f>
         <v>1307640.7125000001</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="10">
         <f>AVERAGE(31710.87,30271.444,30003.081,31055.65)</f>
         <v>30760.261249999996</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:3" ht="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2190,21 +2199,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2415,10 +2409,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2441,20 +2461,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/MC - Tablas de Datos Lab 7.xlsx
+++ b/Docs/MC - Tablas de Datos Lab 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc/Documents/GitHub/EDA/-LabCollision-S07-G04-/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D3347D-9A56-494D-B501-F6B3BE84C6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD7F14C-0188-7242-A362-CB8CEB77BBB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -152,20 +152,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -189,7 +189,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -223,85 +223,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -378,6 +300,84 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -624,13 +624,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1307640.9024999999</c:v>
+                  <c:v>1307643.5586600001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1307640.9024999999</c:v>
+                  <c:v>1307643.5586600001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1307640.8999999999</c:v>
+                  <c:v>1307643.5586600001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,13 +642,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31310.106</c:v>
+                  <c:v>31525.066999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32414.553</c:v>
+                  <c:v>29415.955000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33761.277249999999</c:v>
+                  <c:v>29383.202000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,13 +750,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1307640.9024999999</c:v>
+                  <c:v>1307649.2736666601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1307640.9024999999</c:v>
+                  <c:v>1307649.537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1307640.7125000001</c:v>
+                  <c:v>1307649.2736666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,13 +768,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31137.034</c:v>
+                  <c:v>31317.044000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30234.10325</c:v>
+                  <c:v>32227.813999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30760.261249999996</c:v>
+                  <c:v>31981.498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,7 +1681,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0"/>
+    <sheetView zoomScale="166" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1692,7 +1692,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8678333" cy="6291204"/>
+    <xdr:ext cx="8673830" cy="6282447"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1725,29 +1725,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="6">
       <calculatedColumnFormula>ROUND(AVERAGE(1307664.808, 1307632.934,1307632.934,1307632.934),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="3">
-      <calculatedColumnFormula>AVERAGE(40695.658,28954.351,33240.404,32154.696)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="1">
       <calculatedColumnFormula>AVERAGE(1307664.808,1307632.934,1307632.934,1307632.934)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0">
-      <calculatedColumnFormula>AVERAGE(35756.639,31360.055,29879.004,30473.106)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2053,7 +2049,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2064,11 +2060,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2085,47 +2081,41 @@
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="8">
-        <f>AVERAGE(1307664.808,1307632.934,1307632.934,1307632.934)</f>
-        <v>1307640.9024999999</v>
-      </c>
-      <c r="C3" s="8">
-        <f>AVERAGE(35157.27,30943.382,29220.949,29918.823)</f>
-        <v>31310.106</v>
+      <c r="B3" s="7">
+        <v>1307643.5586600001</v>
+      </c>
+      <c r="C3" s="7">
+        <v>31525.066999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="9">
-        <f>AVERAGE(1307664.808,1307632.934,1307632.934,1307632.934)</f>
-        <v>1307640.9024999999</v>
-      </c>
-      <c r="C4" s="8">
-        <f>AVERAGE(36980.374,31871.91,29807.519,30998.409)</f>
-        <v>32414.553</v>
+      <c r="B4" s="7">
+        <v>1307643.5586600001</v>
+      </c>
+      <c r="C4" s="7">
+        <v>29415.955000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
-      <c r="B5" s="8">
-        <f t="shared" ref="B5" si="0">ROUND(AVERAGE(1307664.808, 1307632.934,1307632.934,1307632.934),2)</f>
-        <v>1307640.8999999999</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" ref="C5" si="1">AVERAGE(40695.658,28954.351,33240.404,32154.696)</f>
-        <v>33761.277249999999</v>
+      <c r="B5" s="7">
+        <v>1307643.5586600001</v>
+      </c>
+      <c r="C5" s="7">
+        <v>29383.202000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2142,39 +2132,33 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="9">
-        <f t="shared" ref="B10" si="2">AVERAGE(1307664.808,1307632.934,1307632.934,1307632.934)</f>
-        <v>1307640.9024999999</v>
-      </c>
-      <c r="C10" s="7">
-        <f>AVERAGE(32300.485,32871.653,29491.981,29884.017)</f>
-        <v>31137.034</v>
+      <c r="B10" s="8">
+        <v>1307649.2736666601</v>
+      </c>
+      <c r="C10" s="6">
+        <v>31317.044000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="9">
-        <f>AVERAGE(1307664.808,1307632.934,1307632.934,1307632.934)</f>
-        <v>1307640.9024999999</v>
-      </c>
-      <c r="C11" s="10">
-        <f>AVERAGE(31687.44,28879.305,29750.589,30619.079)</f>
-        <v>30234.10325</v>
+      <c r="B11" s="8">
+        <v>1307649.537</v>
+      </c>
+      <c r="C11" s="9">
+        <v>32227.813999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="7">
-        <f>AVERAGE(1307664.237,1307632.871,1307632.871,1307632.871)</f>
-        <v>1307640.7125000001</v>
-      </c>
-      <c r="C12" s="10">
-        <f>AVERAGE(31710.87,30271.444,30003.081,31055.65)</f>
-        <v>30760.261249999996</v>
+      <c r="B12" s="8">
+        <v>1307649.2736666601</v>
+      </c>
+      <c r="C12" s="9">
+        <v>31981.498</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -2199,6 +2183,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2409,36 +2408,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2461,9 +2434,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>